--- a/DesignerConfigs/Datas/test/demo_primitive.xlsx
+++ b/DesignerConfigs/Datas/test/demo_primitive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA791E1-4590-4527-902D-DA03B3B8F0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6A5E45-2958-42FD-8C20-AEF7B1B853E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29730" yWindow="1545" windowWidth="27645" windowHeight="14835" xr2:uid="{7AB0535F-222E-413C-B0CA-19C827C106C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AB0535F-222E-413C-B0CA-19C827C106C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>##</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -193,10 +193,6 @@
   </si>
   <si>
     <t>测试本地化字符串3</t>
-  </si>
-  <si>
-    <t>1999-01-01 00:00:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2000-01-02 00:05</t>
@@ -314,19 +310,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -641,7 +637,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -724,10 +720,10 @@
       <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="3"/>
       <c r="N3" t="s">
         <v>23</v>
       </c>
@@ -766,10 +762,10 @@
       <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="3"/>
       <c r="N4" t="s">
         <v>36</v>
       </c>
@@ -815,16 +811,16 @@
         <v>47</v>
       </c>
       <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
         <v>54</v>
       </c>
-      <c r="O5" t="s">
-        <v>55</v>
-      </c>
       <c r="P5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
+      </c>
+      <c r="R5" s="1">
+        <v>36527.003472222219</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -859,16 +855,16 @@
         <v>48</v>
       </c>
       <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" t="s">
         <v>56</v>
       </c>
-      <c r="O6" t="s">
-        <v>57</v>
-      </c>
       <c r="P6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -903,16 +899,16 @@
         <v>49</v>
       </c>
       <c r="N7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" t="s">
         <v>58</v>
       </c>
-      <c r="O7" t="s">
-        <v>59</v>
-      </c>
       <c r="P7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -941,16 +937,16 @@
         <v>43</v>
       </c>
       <c r="N8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" t="s">
         <v>60</v>
       </c>
-      <c r="O8" t="s">
-        <v>61</v>
-      </c>
       <c r="P8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/demo_primitive.xlsx
+++ b/DesignerConfigs/Datas/test/demo_primitive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6A5E45-2958-42FD-8C20-AEF7B1B853E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE439EB1-F560-43DA-A5E4-A7D961E5CDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AB0535F-222E-413C-B0CA-19C827C106C3}"/>
+    <workbookView xWindow="1515" yWindow="435" windowWidth="26100" windowHeight="14850" xr2:uid="{7AB0535F-222E-413C-B0CA-19C827C106C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -827,24 +827,9 @@
       <c r="B6" t="b">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
       <c r="J6" t="s">
         <v>41</v>
       </c>
@@ -868,27 +853,9 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
       <c r="J7" t="s">
         <v>42</v>
       </c>
@@ -912,9 +879,6 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B8" t="b">
-        <v>1</v>
-      </c>
       <c r="C8">
         <v>1</v>
       </c>

--- a/DesignerConfigs/Datas/test/demo_primitive.xlsx
+++ b/DesignerConfigs/Datas/test/demo_primitive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE439EB1-F560-43DA-A5E4-A7D961E5CDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A7316A-1A59-479A-9E1A-C3D116992A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="435" windowWidth="26100" windowHeight="14850" xr2:uid="{7AB0535F-222E-413C-B0CA-19C827C106C3}"/>
+    <workbookView xWindow="29175" yWindow="495" windowWidth="24120" windowHeight="14850" xr2:uid="{7AB0535F-222E-413C-B0CA-19C827C106C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>##</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -79,86 +79,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>字段1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段2</t>
-  </si>
-  <si>
-    <t>字段3</t>
-  </si>
-  <si>
-    <t>字段4</t>
-  </si>
-  <si>
-    <t>字段5</t>
-  </si>
-  <si>
-    <t>字段6</t>
-  </si>
-  <si>
-    <t>字段7</t>
-  </si>
-  <si>
-    <t>字段9</t>
-  </si>
-  <si>
-    <t>字段10</t>
-  </si>
-  <si>
-    <t>字段12</t>
-  </si>
-  <si>
-    <t>字段13</t>
-  </si>
-  <si>
-    <t>字段14</t>
-  </si>
-  <si>
-    <t>字段16</t>
-  </si>
-  <si>
-    <t>字段描述1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段描述2</t>
-  </si>
-  <si>
-    <t>字段描述3</t>
-  </si>
-  <si>
-    <t>字段描述4</t>
-  </si>
-  <si>
-    <t>字段描述5</t>
-  </si>
-  <si>
-    <t>字段描述6</t>
-  </si>
-  <si>
-    <t>字段描述7</t>
-  </si>
-  <si>
-    <t>字段描述9</t>
-  </si>
-  <si>
-    <t>字段描述10</t>
-  </si>
-  <si>
-    <t>字段描述12</t>
-  </si>
-  <si>
-    <t>字段描述13</t>
-  </si>
-  <si>
-    <t>字段描述14</t>
-  </si>
-  <si>
-    <t>字段描述16</t>
-  </si>
-  <si>
     <t>hello</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -195,39 +115,18 @@
     <t>测试本地化字符串3</t>
   </si>
   <si>
-    <t>2000-01-02 00:05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1999-01-01 00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-01-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2</t>
   </si>
   <si>
     <t>2,3,4</t>
   </si>
   <si>
-    <t>1.1,1.2</t>
-  </si>
-  <si>
     <t>2.2,2.3,3.4</t>
   </si>
   <si>
-    <t>1.1,1.3</t>
-  </si>
-  <si>
     <t>2.2,2.3,3.5</t>
   </si>
   <si>
-    <t>1.1,1.4</t>
-  </si>
-  <si>
     <t>2.2,2.3,3.6</t>
   </si>
   <si>
@@ -244,6 +143,76 @@
   </si>
   <si>
     <t>4.5,5.6,6.9,123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/key4</t>
+  </si>
+  <si>
+    <t>测试本地化字符串4</t>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,8 +244,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +263,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -298,19 +280,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -319,10 +301,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -634,152 +626,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C6F1EC-913E-4B3D-B77A-7DE02DCBAE91}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="18.875" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="18" max="18" width="22.875" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="N2" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R2" t="s">
+      <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
+    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="N4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" t="s">
-        <v>39</v>
-      </c>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" t="b">
         <v>0</v>
       </c>
@@ -802,83 +756,119 @@
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" t="s">
-        <v>61</v>
-      </c>
-      <c r="R5" s="1">
+        <v>29</v>
+      </c>
+      <c r="P5" s="3">
         <v>36527.003472222219</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" t="b">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
       <c r="E6">
         <v>4</v>
       </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
         <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" t="s">
-        <v>62</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="P6" s="3">
+        <v>36528.003472164353</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
       <c r="E7">
         <v>5</v>
       </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
         <v>49</v>
       </c>
       <c r="N7" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
+      </c>
+      <c r="P7" s="3">
+        <v>36529.003472164353</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
       <c r="C8">
         <v>1</v>
       </c>
@@ -898,19 +888,25 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
+      </c>
+      <c r="P8" s="3">
+        <v>36530.003472164353</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/demo_primitive.xlsx
+++ b/DesignerConfigs/Datas/test/demo_primitive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A7316A-1A59-479A-9E1A-C3D116992A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E455777-7166-4C3D-8126-06DA860411BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29175" yWindow="495" windowWidth="24120" windowHeight="14850" xr2:uid="{7AB0535F-222E-413C-B0CA-19C827C106C3}"/>
+    <workbookView xWindow="31515" yWindow="2985" windowWidth="25335" windowHeight="12915" xr2:uid="{7AB0535F-222E-413C-B0CA-19C827C106C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,194 +25,194 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>s1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>world</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nihao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shijie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/key1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/key2</t>
+  </si>
+  <si>
+    <t>/test/key3</t>
+  </si>
+  <si>
+    <t>测试本地化字符串1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试本地化字符串2</t>
+  </si>
+  <si>
+    <t>测试本地化字符串3</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>2.2,2.3,3.4</t>
+  </si>
+  <si>
+    <t>2.2,2.3,3.5</t>
+  </si>
+  <si>
+    <t>2.2,2.3,3.6</t>
+  </si>
+  <si>
+    <t>4,5,6,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5,5.6,6.7,8.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5,5.6,6.8,9.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5,5.6,6.9,123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/key4</t>
+  </si>
+  <si>
+    <t>测试本地化字符串4</t>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4</t>
-  </si>
-  <si>
-    <t>x5</t>
-  </si>
-  <si>
-    <t>x6</t>
-  </si>
-  <si>
-    <t>x7</t>
-  </si>
-  <si>
-    <t>s1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hello</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>world</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nihao</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shijie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/test/key1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/test/key2</t>
-  </si>
-  <si>
-    <t>/test/key3</t>
-  </si>
-  <si>
-    <t>测试本地化字符串1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试本地化字符串2</t>
-  </si>
-  <si>
-    <t>测试本地化字符串3</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>2,3,4</t>
-  </si>
-  <si>
-    <t>2.2,2.3,3.4</t>
-  </si>
-  <si>
-    <t>2.2,2.3,3.5</t>
-  </si>
-  <si>
-    <t>2.2,2.3,3.6</t>
-  </si>
-  <si>
-    <t>4,5,6,7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5,5.6,6.7,8.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5,5.6,6.8,9.9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5,5.6,6.9,123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>short</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/test/key4</t>
-  </si>
-  <si>
-    <t>测试本地化字符串4</t>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -295,12 +295,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -308,6 +302,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C6F1EC-913E-4B3D-B77A-7DE02DCBAE91}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -640,102 +640,147 @@
     <col min="16" max="16" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>13</v>
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>45</v>
-      </c>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1">
+        <v>36527.003472222219</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -744,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -765,7 +810,7 @@
         <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="N5" t="s">
         <v>25</v>
@@ -773,8 +818,8 @@
       <c r="O5" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="3">
-        <v>36527.003472222219</v>
+      <c r="P5" s="1">
+        <v>36528.003472164353</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -788,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -817,8 +862,8 @@
       <c r="O6" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="3">
-        <v>36528.003472164353</v>
+      <c r="P6" s="1">
+        <v>36529.003472164353</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -832,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -847,10 +892,10 @@
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M7" t="s">
         <v>49</v>
@@ -861,59 +906,15 @@
       <c r="O7" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="3">
-        <v>36529.003472164353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P7" s="1">
         <v>36530.003472164353</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
